--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Incident_Reporting_Service/artifacts/service_model/information_model/Incident_Report_IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Incident_Reporting_Service/artifacts/service_model/information_model/Incident_Report_IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1100" windowWidth="31480" windowHeight="17940"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Citation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="285">
   <si>
     <t>Description</t>
   </si>
@@ -862,9 +862,6 @@
     <t xml:space="preserve"> /ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/inc-ext:IncidentReport/inc-ext:DriverLicense[lexslib:SameAsDigestReference/@lexslib:ref= /ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s:id = ../j:IncidentSubject/nc:RoleOfPersonReference/@s:ref]/j:PersonAugmentation/nc:DriverLicense/@s:id]/inc-ext:DriverLicenseCDLIndicator</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Civil Relief Act Juvenile Indicator</t>
   </si>
   <si>
@@ -887,6 +884,12 @@
   </si>
   <si>
     <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/inc-ext:IncidentReport/inc-ext:DrivingIncident[lexslib:SameAsDigestReference/@lexslib:ref=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc:Activity[nc:ActivityCategoryText='Incident']/@s:id]/inc-ext:CivilReliefActJuvenileIndicator</t>
+  </si>
+  <si>
+    <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/inc-ext:IncidentReport/inc-ext:Charge/inc-ext:RelatedCriminalChargeIndicator</t>
+  </si>
+  <si>
+    <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityLocation/nc:Location[@s:id=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:PersonBirthLocationAssociation/nc:LocationReference/@s:ref]/nc:LocationAddress/nc:StructuredAddress/nc:LocationCityName</t>
   </si>
 </sst>
 </file>
@@ -2517,9 +2520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2958,7 +2961,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -2971,8 +2974,8 @@
       <c r="D28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>275</v>
+      <c r="E28" s="12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3468,7 +3471,7 @@
     </row>
     <row r="60" spans="1:6" ht="70">
       <c r="A60" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -3480,12 +3483,12 @@
         <v>1</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="70">
       <c r="A61" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>93</v>
@@ -3497,12 +3500,12 @@
         <v>1</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="70">
       <c r="A62" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>94</v>
@@ -3514,12 +3517,12 @@
         <v>1</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="70">
       <c r="A63" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>186</v>
@@ -3528,7 +3531,7 @@
         <v>88</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3609,7 +3612,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" ht="70">
+    <row r="69" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A69" s="6" t="s">
         <v>163</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="F69" s="6"/>
     </row>

--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Incident_Reporting_Service/artifacts/service_model/information_model/Incident_Report_IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Incident_Reporting_Service/artifacts/service_model/information_model/Incident_Report_IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="-28800" yWindow="5460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Citation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="289">
   <si>
     <t>Description</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>US Mail</t>
-  </si>
-  <si>
-    <t>Officer No.</t>
   </si>
   <si>
     <t>Officer Name</t>
@@ -890,6 +887,21 @@
   </si>
   <si>
     <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityLocation/nc:Location[@s:id=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:PersonBirthLocationAssociation/nc:LocationReference/@s:ref]/nc:LocationAddress/nc:StructuredAddress/nc:LocationCityName</t>
+  </si>
+  <si>
+    <t>Officer ID</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to an officer</t>
+  </si>
+  <si>
+    <t>ID34567</t>
+  </si>
+  <si>
+    <t>Officer Badge No.</t>
+  </si>
+  <si>
+    <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/inc-ext:IncidentReport/inc-ext:EnforcementOfficial/inc-ext:EnforcementOfficialIdentification/nc:IdentificationID</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1112,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="530">
+  <cellStyleXfs count="534">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1127,6 +1139,10 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1689,7 +1705,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="530">
+  <cellStyles count="534">
     <cellStyle name="Accent1 - 20%" xfId="3"/>
     <cellStyle name="Accent1 - 40%" xfId="4"/>
     <cellStyle name="Accent1 - 60%" xfId="5"/>
@@ -1963,6 +1979,8 @@
     <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
@@ -2215,6 +2233,8 @@
     <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="24"/>
@@ -2518,11 +2538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2539,22 +2559,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" ht="42">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2567,11 +2587,11 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14"/>
@@ -2579,27 +2599,27 @@
     </row>
     <row r="4" spans="1:6" ht="70">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2">
         <v>82734800</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
@@ -2608,7 +2628,7 @@
         <v>42304</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2617,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
@@ -2626,16 +2646,16 @@
         <v>105</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A7" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
@@ -2644,15 +2664,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A8" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>51</v>
@@ -2661,12 +2681,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2679,18 +2699,18 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2703,18 +2723,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2724,19 +2744,19 @@
     </row>
     <row r="14" spans="1:6" ht="70">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="70">
@@ -2750,44 +2770,44 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="70">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="112">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="112">
@@ -2801,10 +2821,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="140">
@@ -2818,10 +2838,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="112">
@@ -2835,10 +2855,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="84">
@@ -2855,32 +2875,32 @@
         <v>41444812</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="84">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="140">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
@@ -2889,7 +2909,7 @@
         <v>12345678</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" ht="112">
@@ -2897,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
@@ -2906,7 +2926,7 @@
         <v>8023631111</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" ht="112">
@@ -2914,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -2923,7 +2943,7 @@
         <v>8023631112</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" ht="70">
@@ -2940,42 +2960,42 @@
         <v>24014</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" ht="70">
@@ -2989,21 +3009,21 @@
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3020,57 +3040,57 @@
         <v>135</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3080,58 +3100,58 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" ht="98">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="112">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" ht="112">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="98">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>24</v>
@@ -3140,66 +3160,66 @@
         <v>2015</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="98">
       <c r="A40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="98">
       <c r="A41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="98">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>39</v>
@@ -3208,15 +3228,15 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>40</v>
@@ -3225,12 +3245,12 @@
         <v>0</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3240,111 +3260,111 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" ht="126">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A52" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>33</v>
@@ -3353,7 +3373,7 @@
         <v>0.2</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3361,7 +3381,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>34</v>
@@ -3370,21 +3390,21 @@
         <v>30</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A54" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E54" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3392,7 +3412,7 @@
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>35</v>
@@ -3401,29 +3421,29 @@
         <v>40</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A56" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E56" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A57" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>36</v>
@@ -3432,15 +3452,15 @@
         <v>0</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A58" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>37</v>
@@ -3449,15 +3469,15 @@
         <v>0</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>38</v>
@@ -3466,77 +3486,77 @@
         <v>0</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="70">
       <c r="A60" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="70">
       <c r="A61" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="70">
       <c r="A62" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="70">
       <c r="A63" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3546,96 +3566,96 @@
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A66" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A67" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A68" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A69" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A70" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>45</v>
@@ -3644,15 +3664,15 @@
         <v>2</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A71" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>46</v>
@@ -3661,16 +3681,16 @@
         <v>47</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A72" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>47</v>
@@ -3679,13 +3699,13 @@
         <v>1197</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3695,219 +3715,236 @@
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" ht="84">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A75" s="3" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12345</v>
+        <v>284</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A76" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="3">
+        <v>12345</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" ht="84">
+      <c r="A77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="3" customFormat="1" ht="70">
+      <c r="A78" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="B78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E78" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" ht="70">
-      <c r="A77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="3" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" ht="70">
+      <c r="A80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="70">
-      <c r="A79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="70">
-      <c r="A80" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="112">
-      <c r="A81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>151</v>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="70">
+      <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="112">
       <c r="A82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="112">
+      <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" ht="126">
-      <c r="A83" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="126">
+      <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" ht="112">
-      <c r="A84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>266</v>
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="84">
-      <c r="A86" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="2" t="s">
+    <row r="85" spans="1:6" ht="112">
+      <c r="A85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="84">
+      <c r="A87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="2" t="b">
+      <c r="D87" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="119" customHeight="1">
-      <c r="A87" s="2" t="s">
-        <v>243</v>
+      <c r="E87" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="119" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/service-specifications/Incident_Reporting_Service/artifacts/service_model/information_model/Incident_Report_IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/service-specifications/Incident_Reporting_Service/artifacts/service_model/information_model/Incident_Report_IEPD/documentation/impl-artifacts/vermont/Incident_Citation_Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Citation" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>1/1/2016:01:22</t>
   </si>
   <si>
-    <t>Officer Agency ORI</t>
-  </si>
-  <si>
     <t>Rt. 89</t>
   </si>
   <si>
@@ -842,9 +839,6 @@
     <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j:EnforcementOfficial[@s:id=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/j:ActivityEnforcementOfficialAssociation/nc:PersonReference/@s:ref]/j:EnforcementOfficialBadgeIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Organization[ndexia:OrganizationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/nc:PersonAssignedUnitAssociation/nc:OrganizationReference/@s:ref]/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityOrganization/nc:Organization[@s:id=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/nc:PersonAssignedUnitAssociation/nc:OrganizationReference/@s:ref]/nc:OrganizationName</t>
   </si>
   <si>
@@ -902,6 +896,12 @@
   </si>
   <si>
     <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/inc-ext:IncidentReport/inc-ext:EnforcementOfficial/inc-ext:EnforcementOfficialIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>Officer Agency</t>
+  </si>
+  <si>
+    <t>/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:EnforcementUnit[ndexia:EnforcementUnitAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/ir-doc:IncidentReport/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/nc:PersonAssignedUnitAssociation/nc:OrganizationReference/@s:ref]/j:EnforcementUnitNumberIdentification/nc:IdentificationID</t>
   </si>
 </sst>
 </file>
@@ -2542,7 +2542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2559,13 +2559,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" ht="42">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>119</v>
@@ -2574,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2599,27 +2599,27 @@
     </row>
     <row r="4" spans="1:6" ht="70">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2">
         <v>82734800</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
@@ -2628,7 +2628,7 @@
         <v>42304</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2637,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
@@ -2646,16 +2646,16 @@
         <v>105</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A7" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
@@ -2664,15 +2664,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A8" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>51</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2699,18 +2699,18 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2723,13 +2723,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2756,7 +2756,7 @@
         <v>122</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="70">
@@ -2773,7 +2773,7 @@
         <v>123</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="70">
@@ -2790,7 +2790,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="112">
@@ -2807,7 +2807,7 @@
         <v>125</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="112">
@@ -2824,7 +2824,7 @@
         <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="140">
@@ -2841,7 +2841,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="112">
@@ -2858,7 +2858,7 @@
         <v>127</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="84">
@@ -2875,7 +2875,7 @@
         <v>41444812</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="84">
@@ -2883,7 +2883,7 @@
         <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2892,7 +2892,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="140">
@@ -2909,7 +2909,7 @@
         <v>12345678</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" ht="112">
@@ -2917,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
@@ -2926,7 +2926,7 @@
         <v>8023631111</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" ht="112">
@@ -2934,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -2943,7 +2943,7 @@
         <v>8023631112</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" ht="70">
@@ -2960,7 +2960,7 @@
         <v>24014</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -2978,15 +2978,15 @@
         <v>128</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
@@ -2995,7 +2995,7 @@
         <v>129</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3012,18 +3012,18 @@
         <v>130</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3040,7 +3040,7 @@
         <v>135</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3048,18 +3048,18 @@
         <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
@@ -3068,15 +3068,15 @@
         <v>131</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -3085,7 +3085,7 @@
         <v>131</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3109,10 +3109,10 @@
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="112">
@@ -3126,7 +3126,7 @@
         <v>132</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" ht="112">
@@ -3134,7 +3134,7 @@
         <v>96</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
@@ -3143,7 +3143,7 @@
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="98">
@@ -3151,7 +3151,7 @@
         <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>24</v>
@@ -3160,7 +3160,7 @@
         <v>2015</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="98">
@@ -3168,7 +3168,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>25</v>
@@ -3177,7 +3177,7 @@
         <v>134</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="98">
@@ -3185,7 +3185,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -3194,7 +3194,7 @@
         <v>135</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="98">
@@ -3202,7 +3202,7 @@
         <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -3211,15 +3211,15 @@
         <v>136</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>39</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3263,7 +3263,7 @@
         <v>102</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>102</v>
@@ -3272,7 +3272,7 @@
         <v>121</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -3290,7 +3290,7 @@
         <v>137</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -3299,13 +3299,13 @@
         <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3313,16 +3313,16 @@
         <v>105</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3336,10 +3336,10 @@
         <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" ht="42">
@@ -3347,16 +3347,16 @@
         <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3364,7 +3364,7 @@
         <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>33</v>
@@ -3373,7 +3373,7 @@
         <v>0.2</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3390,21 +3390,21 @@
         <v>30</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E54" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3421,21 +3421,21 @@
         <v>40</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E56" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3486,12 +3486,12 @@
         <v>0</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="70">
       <c r="A60" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>91</v>
@@ -3503,12 +3503,12 @@
         <v>1</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="70">
       <c r="A61" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>92</v>
@@ -3520,12 +3520,12 @@
         <v>1</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="70">
       <c r="A62" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>93</v>
@@ -3537,21 +3537,21 @@
         <v>1</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="70">
       <c r="A63" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3566,19 +3566,19 @@
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A65" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" ht="84">
@@ -3592,15 +3592,15 @@
         <v>41</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" ht="70">
       <c r="A67" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>76</v>
@@ -3609,10 +3609,10 @@
         <v>43</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3626,18 +3626,18 @@
         <v>44</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A69" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>55</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F69" s="6"/>
     </row>
@@ -3664,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3681,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F71" s="9"/>
     </row>
@@ -3699,7 +3699,7 @@
         <v>1197</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F72" s="9"/>
     </row>
@@ -3724,27 +3724,27 @@
         <v>52</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" ht="42">
       <c r="A75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" ht="84">
@@ -3755,30 +3755,30 @@
         <v>115</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D76" s="3">
         <v>12345</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" ht="84">
       <c r="A77" s="3" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" ht="70">
@@ -3792,10 +3792,10 @@
         <v>54</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3819,10 +3819,10 @@
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F80" s="3"/>
     </row>
@@ -3840,7 +3840,7 @@
         <v>122</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="112">
@@ -3854,10 +3854,10 @@
         <v>57</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F82" s="3"/>
     </row>
@@ -3872,10 +3872,10 @@
         <v>4</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" s="3"/>
     </row>
@@ -3893,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F84" s="3"/>
     </row>
@@ -3908,16 +3908,16 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3930,7 +3930,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
@@ -3939,12 +3939,12 @@
         <v>0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="119" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
